--- a/biology/Microbiologie/Leucothrix_pacifica/Leucothrix_pacifica.xlsx
+++ b/biology/Microbiologie/Leucothrix_pacifica/Leucothrix_pacifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucothrix pacifica est une des espèces du genre bactérien Leucothrix de la famille des Thiotrichaceae. Elle a été isolé dans le sud de l'Océan Pacifique.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leucothrix pacifica est une bactérie à Gram négatif, strictement aérobie, non flagellée, non glissante, oxydase et catalase positive, pigmentée en blanc et en forme de bâtonnet[1].
-Au laboratoire, sa croissance optimale se situe à 28°C en présence de 2 % (w/v) de NaCl, à pH 8.0[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leucothrix pacifica est une bactérie à Gram négatif, strictement aérobie, non flagellée, non glissante, oxydase et catalase positive, pigmentée en blanc et en forme de bâtonnet.
+Au laboratoire, sa croissance optimale se situe à 28°C en présence de 2 % (w/v) de NaCl, à pH 8.0.
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Son étymologie est la suivante : Leu'co.thrix Gr. adj. leucus signifiant clair, léger; Gr. n. thrix trichis cheveux; M. L. fem. n. Leucothrix chevelure incolore pour le nom de genre et pa.ci’fi.ca. L. fem. adj. pacifica en paix, faisant référence à l'Océan Pacifique, pour l'épithète[2],[3]. Le nom a été déclaré publié de manière valide par l'ICSP selon le code de nomenclature bactérienne[2].
-Taxonomie
-Décrit depuis 1844[4], le genre Leucothrix ne comptait qu'une seule et unique espèce,  l'espèce type Leucothrix mucor jusqu'à la découverte de l'espèce Leucothrix pacifica. La souche type, XH122, a été isolée des eaux de surface dans le Gyre subtropical du Pacifique sud[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son étymologie est la suivante : Leu'co.thrix Gr. adj. leucus signifiant clair, léger; Gr. n. thrix trichis cheveux; M. L. fem. n. Leucothrix chevelure incolore pour le nom de genre et pa.ci’fi.ca. L. fem. adj. pacifica en paix, faisant référence à l'Océan Pacifique, pour l'épithète,. Le nom a été déclaré publié de manière valide par l'ICSP selon le code de nomenclature bactérienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leucothrix_pacifica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leucothrix_pacifica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit depuis 1844, le genre Leucothrix ne comptait qu'une seule et unique espèce,  l'espèce type Leucothrix mucor jusqu'à la découverte de l'espèce Leucothrix pacifica. La souche type, XH122, a été isolée des eaux de surface dans le Gyre subtropical du Pacifique sud.
 </t>
         </is>
       </c>
